--- a/collector/rev_ledger_excel/base_rev_ledger.xlsx
+++ b/collector/rev_ledger_excel/base_rev_ledger.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinj/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinj/Desktop/Gazeua/arbitrage-bot/collector/rev_ledger_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9D46DD-4251-C444-8376-C0CA42DB265B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96D5847-0588-A24C-BAE1-31F1E057FEEC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="440" windowWidth="27960" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>coin_name</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Agg. Yield %</t>
+  </si>
+  <si>
+    <t>Total KRW earned</t>
+  </si>
+  <si>
+    <t>Total COIN loss</t>
   </si>
 </sst>
 </file>
@@ -175,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,41 +213,62 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,30 +585,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R6"/>
+  <dimension ref="B1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="13" style="14" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="13" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="15" customWidth="1"/>
-    <col min="12" max="12" width="13" style="16" customWidth="1"/>
-    <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" style="14" customWidth="1"/>
-    <col min="15" max="25" width="10.83203125" style="14" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="10.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="13" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13" style="11" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="23" customWidth="1"/>
+    <col min="12" max="12" width="13" style="24" customWidth="1"/>
+    <col min="13" max="13" width="13" style="25" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="10.83203125" style="11" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
@@ -598,6 +625,7 @@
       <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" s="5" t="s">
@@ -606,121 +634,170 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="6"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="2:18" ht="17" customHeight="1" thickBot="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="18" t="str">
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="2:18" s="12" customFormat="1">
+      <c r="B4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="13"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="2:18" s="12" customFormat="1">
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="2:18" s="12" customFormat="1">
+      <c r="B6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="2:18" s="12" customFormat="1">
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="2:18" ht="17" customHeight="1" thickBot="1">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="17" t="str">
         <f>UPPER(D3)</f>
         <v/>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18" t="str">
+      <c r="E9" s="18"/>
+      <c r="F9" s="17" t="str">
         <f>UPPER(E3)</f>
         <v/>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="18" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="18" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="18" t="s">
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="18" t="s">
+      <c r="P9" s="18"/>
+      <c r="Q9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="19"/>
-    </row>
-    <row r="6" spans="2:18" ht="17" customHeight="1" thickTop="1">
-      <c r="B6" s="4" t="s">
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="2:18" ht="17" customHeight="1" thickTop="1">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E10" s="4" t="str">
         <f>UPPER($C$3)</f>
         <v/>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4" t="str">
+      <c r="G10" s="4" t="str">
         <f>UPPER($C$3)</f>
         <v/>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="str">
+      <c r="I10" s="4" t="str">
         <f>UPPER($C$3)</f>
         <v/>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="4" t="s">
+      <c r="N10" s="7"/>
+      <c r="O10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="4" t="str">
+      <c r="P10" s="4" t="str">
         <f>UPPER($C$3)</f>
         <v/>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="4" t="str">
+      <c r="R10" s="4" t="str">
         <f>UPPER($C$3)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
